--- a/examples/Abatement/Data/techdata_categoryexperiment_ID.xlsx
+++ b/examples/Abatement/Data/techdata_categoryexperiment_ID.xlsx
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>0.02</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>0.02</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +626,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
